--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BDSBaPCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\elec\BDSBaPCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -593,7 +593,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\elec\BDSBaPCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BDSBaPCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -593,7 +593,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BDSBaPCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-brazil\InputData\elec\BDSBaPCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BDSBaPCF" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
@@ -483,16 +483,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -500,82 +502,82 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -593,21 +595,21 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.59765625" customWidth="1"/>
+    <col min="2" max="2" width="23.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -615,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -623,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -631,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -639,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -647,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -655,7 +657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -663,15 +665,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -679,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -687,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -695,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -704,7 +706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -731,13 +733,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>34</v>
       </c>
       <c r="B17">
         <f>B9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
